--- a/Book.xlsx
+++ b/Book.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_6547449B2FF27082B680A96394BEE9F292037361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80369356-3425-4709-B26E-1BAA193F8B38}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balasubramaniam\Documents\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD77D48-DBB7-4068-8A51-6E818AEE0A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sagar Lab" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -248,13 +253,40 @@
   </si>
   <si>
     <t>student93</t>
+  </si>
+  <si>
+    <t>Gautham G</t>
+  </si>
+  <si>
+    <t>Narendra kumar</t>
+  </si>
+  <si>
+    <t>Nageswara Rao</t>
+  </si>
+  <si>
+    <t>Gautham T</t>
+  </si>
+  <si>
+    <t>Sunanda</t>
+  </si>
+  <si>
+    <t>Krishna Kumari</t>
+  </si>
+  <si>
+    <t>Girija Shankar</t>
+  </si>
+  <si>
+    <t>Shivam Singh</t>
+  </si>
+  <si>
+    <t>Nirmal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,10 +366,10 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -660,19 +692,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -687,7 +719,10 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -698,7 +733,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -709,7 +747,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -720,7 +761,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -731,7 +775,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -742,7 +789,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -753,7 +803,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -764,7 +817,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -775,7 +831,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -786,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -797,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -808,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -819,7 +878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -830,7 +889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -841,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -855,7 +914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="7" customFormat="1">
+    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -869,7 +928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="7" customFormat="1">
+    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -883,7 +942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="7" customFormat="1">
+    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
@@ -897,7 +956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="7" customFormat="1">
+    <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
@@ -911,7 +970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="7" customFormat="1">
+    <row r="23" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
@@ -925,7 +984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="7" customFormat="1">
+    <row r="24" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -939,7 +998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="7" customFormat="1">
+    <row r="25" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
@@ -953,7 +1012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="7" customFormat="1">
+    <row r="26" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
@@ -967,7 +1026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>40</v>
       </c>
@@ -981,7 +1040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -995,7 +1054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="7" customFormat="1">
+    <row r="29" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -1009,7 +1068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="7" customFormat="1">
+    <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>46</v>
       </c>
@@ -1023,7 +1082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="7" customFormat="1">
+    <row r="31" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>48</v>
       </c>
@@ -1037,7 +1096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="7" customFormat="1">
+    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>50</v>
       </c>
@@ -1051,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="7" customFormat="1">
+    <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -1065,7 +1124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="7" customFormat="1">
+    <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>54</v>
       </c>
@@ -1079,7 +1138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="7" customFormat="1">
+    <row r="35" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>56</v>
       </c>
@@ -1093,7 +1152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="7" customFormat="1">
+    <row r="36" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>58</v>
       </c>
@@ -1107,7 +1166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -1121,7 +1180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>62</v>
       </c>
@@ -1135,7 +1194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="7" customFormat="1">
+    <row r="39" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>64</v>
       </c>
@@ -1149,7 +1208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1163,7 +1222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="7" customFormat="1">
+    <row r="41" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>68</v>
       </c>
@@ -1177,7 +1236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>70</v>
       </c>
@@ -1188,7 +1247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>71</v>
       </c>
@@ -1240,33 +1299,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ff83c55e-1880-45ef-a926-68610acf6a69">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0b7c5a6d-9fcb-43ab-96ce-1c9a742a6523" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002F75489D1964E84ABD79D63F0A254C7E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c79f939e1815843ff8aa5fed66fc5d44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff83c55e-1880-45ef-a926-68610acf6a69" xmlns:ns3="0b7c5a6d-9fcb-43ab-96ce-1c9a742a6523" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93d2a038ee7e6466c2d5584dec75d556" ns2:_="" ns3:_="">
     <xsd:import namespace="ff83c55e-1880-45ef-a926-68610acf6a69"/>
@@ -1489,14 +1528,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ff83c55e-1880-45ef-a926-68610acf6a69">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0b7c5a6d-9fcb-43ab-96ce-1c9a742a6523" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39609910-8D5D-4DB1-BD08-D1EFE7927734}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D06DA2-A2BD-4F94-B893-2C61DFAE9E58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff83c55e-1880-45ef-a926-68610acf6a69"/>
+    <ds:schemaRef ds:uri="0b7c5a6d-9fcb-43ab-96ce-1c9a742a6523"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC701934-E645-419F-B6E3-6722F0015111}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC701934-E645-419F-B6E3-6722F0015111}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D06DA2-A2BD-4F94-B893-2C61DFAE9E58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39609910-8D5D-4DB1-BD08-D1EFE7927734}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ff83c55e-1880-45ef-a926-68610acf6a69"/>
+    <ds:schemaRef ds:uri="0b7c5a6d-9fcb-43ab-96ce-1c9a742a6523"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balasubramaniam\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD77D48-DBB7-4068-8A51-6E818AEE0A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624223B0-D3F9-4AF0-B939-918BB8A5A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>user211</t>
-  </si>
-  <si>
     <t>Admin@123</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>user219</t>
   </si>
   <si>
-    <t>user220</t>
-  </si>
-  <si>
     <t>user221</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t xml:space="preserve">Trainer </t>
   </si>
   <si>
-    <t>student61</t>
-  </si>
-  <si>
     <t>Password@123</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
     <t>student71</t>
   </si>
   <si>
-    <t>Sakthi S</t>
-  </si>
-  <si>
     <t>student72</t>
   </si>
   <si>
@@ -280,6 +268,18 @@
   </si>
   <si>
     <t>Nirmal</t>
+  </si>
+  <si>
+    <t>Student61</t>
+  </si>
+  <si>
+    <t>User211</t>
+  </si>
+  <si>
+    <t>Sakthi</t>
+  </si>
+  <si>
+    <t>User220</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,541 +721,541 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="B29" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balasubramaniam\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624223B0-D3F9-4AF0-B939-918BB8A5A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB55294C-1A11-44A9-85CE-04F50DA46744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>User220</t>
+  </si>
+  <si>
+    <t>Vinobha</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,6 +860,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
